--- a/tests/artefacts/api/exports/import_psip_transactions.xlsx
+++ b/tests/artefacts/api/exports/import_psip_transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/sites/odi/liberia/aims/tests/artefacts/api/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7979319-F7E4-BB45-9EDF-A9A7F18885CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D4147D-FE2A-E44B-AB2A-E778EC4226E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13600" yWindow="-17700" windowWidth="27640" windowHeight="16440" xr2:uid="{EB59C853-E55A-C64C-8F98-D247BE9BE5B9}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>Education</t>
   </si>
   <si>
-    <t>20192020</t>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
